--- a/Payroll.xlsx
+++ b/Payroll.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MS Excel Exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61D0EC62-D054-4D5B-9F63-6E8973BE9B5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7359E9B0-D5CF-4870-B80C-EABC9007F1FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{566433A8-A328-4804-AA01-05FAD407CB95}"/>
   </bookViews>
   <sheets>
     <sheet name="Payroll" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>Payroll</t>
   </si>
@@ -157,7 +158,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -306,13 +307,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -336,6 +350,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -345,7 +360,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60% - Accent5" xfId="2" builtinId="48"/>
@@ -363,6 +378,175 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>199283</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38098</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1083249C-4DCF-42A1-9859-C12304C662C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3247283" y="1028700"/>
+          <a:ext cx="448415" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>391265</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81ADF29C-66D0-49F5-8CA5-2283E11CC9D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1771650" y="1047750"/>
+          <a:ext cx="448415" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609598</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>382985</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84752A3F-6D65-4277-BC19-D4912A0A7D01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628900" y="76200"/>
+          <a:ext cx="419098" cy="306785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -662,24 +846,220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE881DB4-0F8F-4BDA-834E-85442E64A62F}">
+  <dimension ref="B3:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12">
+        <v>40544</v>
+      </c>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="E8" s="7">
+        <v>35</v>
+      </c>
+      <c r="F8" s="7">
+        <f>D8*E8</f>
+        <v>262.5</v>
+      </c>
+      <c r="G8" s="7">
+        <f>0.06*F8</f>
+        <v>15.75</v>
+      </c>
+      <c r="H8" s="3">
+        <f>F8-G8</f>
+        <v>246.75</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" ref="F9:F12" si="0">D9*E9</f>
+        <v>240</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" ref="G9:G12" si="1">0.06*F9</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" ref="H9:H12" si="2">F9-G9</f>
+        <v>225.6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="E10" s="5">
+        <v>25</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="0"/>
+        <v>162.5</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="1"/>
+        <v>9.75</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="2"/>
+        <v>152.75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="5">
+        <v>9</v>
+      </c>
+      <c r="E11" s="5">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="1"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="2"/>
+        <v>338.4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="6">
+        <v>10</v>
+      </c>
+      <c r="E12" s="6">
+        <v>39</v>
+      </c>
+      <c r="F12" s="13">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+      <c r="G12" s="13">
+        <f t="shared" si="1"/>
+        <v>23.4</v>
+      </c>
+      <c r="H12" s="13">
+        <f t="shared" si="2"/>
+        <v>366.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:H5"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19414455-BFA9-4FCB-8E1D-AFACA54F203A}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -690,7 +1070,7 @@
       </c>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -830,15 +1210,15 @@
       <c r="D8" s="6">
         <v>39</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="13">
         <f t="shared" si="0"/>
         <v>390</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="13">
         <f t="shared" si="1"/>
         <v>23.4</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="13">
         <f t="shared" si="2"/>
         <v>366.6</v>
       </c>
@@ -847,7 +1227,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>